--- a/doc/02设计文档/功能模块分解.xlsx
+++ b/doc/02设计文档/功能模块分解.xlsx
@@ -731,9 +731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/capitalmanage/queryProjectPayDetail</t>
-  </si>
-  <si>
     <t>付款接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,16 +852,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/capitalmanage/queryProjectReceiveList</t>
-  </si>
-  <si>
     <t>查询单个项目收款概况接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/capitalmanage/queryProjectReceiveDetail</t>
-  </si>
-  <si>
     <t>查询我的资金账户信息接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1237,6 +1228,17 @@
   </si>
   <si>
     <t>/verifyBider/bidderCertificateResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/capitalManage/queryBidReceiveSurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/capitalManage/queryMyBidReceiveList</t>
+  </si>
+  <si>
+    <t>/capitalmanage/queryProjectPaySurvey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1582,8 +1584,8 @@
   <dimension ref="A1:HM309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2261,10 +2263,10 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -2629,7 +2631,7 @@
         <v>220200</v>
       </c>
       <c r="G42" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H42" t="s">
         <v>130</v>
@@ -2673,7 +2675,7 @@
         <v>220200</v>
       </c>
       <c r="G47" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H47" t="s">
         <v>130</v>
@@ -3281,7 +3283,7 @@
         <v>214</v>
       </c>
       <c r="H115" t="s">
-        <v>215</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3305,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="G118" t="s">
+        <v>215</v>
+      </c>
+      <c r="H118" t="s">
         <v>216</v>
-      </c>
-      <c r="H118" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3316,7 +3318,7 @@
         <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C119" t="s">
         <v>42</v>
@@ -3338,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H121" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3365,10 +3367,10 @@
         <v>3</v>
       </c>
       <c r="G124" t="s">
+        <v>218</v>
+      </c>
+      <c r="H124" t="s">
         <v>219</v>
-      </c>
-      <c r="H124" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3376,10 +3378,10 @@
         <v>231500</v>
       </c>
       <c r="G125" t="s">
+        <v>220</v>
+      </c>
+      <c r="H125" t="s">
         <v>221</v>
-      </c>
-      <c r="H125" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3403,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="G128" t="s">
+        <v>222</v>
+      </c>
+      <c r="H128" t="s">
         <v>223</v>
-      </c>
-      <c r="H128" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="129" spans="3:8">
@@ -3414,10 +3416,10 @@
         <v>231700</v>
       </c>
       <c r="G129" t="s">
+        <v>224</v>
+      </c>
+      <c r="H129" t="s">
         <v>225</v>
-      </c>
-      <c r="H129" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="130" spans="3:8">
@@ -3441,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="G132" t="s">
+        <v>226</v>
+      </c>
+      <c r="H132" t="s">
         <v>227</v>
-      </c>
-      <c r="H132" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="133" spans="3:8">
@@ -3452,10 +3454,10 @@
         <v>231900</v>
       </c>
       <c r="G133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="3:8">
@@ -3479,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="G136" t="s">
+        <v>229</v>
+      </c>
+      <c r="H136" t="s">
         <v>230</v>
-      </c>
-      <c r="H136" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="137" spans="3:8">
@@ -3490,10 +3492,10 @@
         <v>232100</v>
       </c>
       <c r="G137" t="s">
+        <v>231</v>
+      </c>
+      <c r="H137" t="s">
         <v>232</v>
-      </c>
-      <c r="H137" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="138" spans="3:8">
@@ -3517,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="G140" t="s">
+        <v>233</v>
+      </c>
+      <c r="H140" t="s">
         <v>234</v>
-      </c>
-      <c r="H140" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="141" spans="3:8">
@@ -3528,10 +3530,10 @@
         <v>232300</v>
       </c>
       <c r="G141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H141" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="3:8">
@@ -3555,10 +3557,10 @@
         <v>3</v>
       </c>
       <c r="G144" t="s">
+        <v>236</v>
+      </c>
+      <c r="H144" t="s">
         <v>237</v>
-      </c>
-      <c r="H144" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="145" spans="3:8">
@@ -3582,10 +3584,10 @@
         <v>3</v>
       </c>
       <c r="G147" t="s">
+        <v>238</v>
+      </c>
+      <c r="H147" t="s">
         <v>239</v>
-      </c>
-      <c r="H147" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="148" spans="3:8">
@@ -3641,10 +3643,10 @@
         <v>3</v>
       </c>
       <c r="G154" t="s">
+        <v>240</v>
+      </c>
+      <c r="H154" t="s">
         <v>241</v>
-      </c>
-      <c r="H154" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="155" spans="3:8">
@@ -3652,10 +3654,10 @@
         <v>241200</v>
       </c>
       <c r="G155" t="s">
+        <v>242</v>
+      </c>
+      <c r="H155" t="s">
         <v>243</v>
-      </c>
-      <c r="H155" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="156" spans="3:8">
@@ -3679,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="G158" t="s">
+        <v>244</v>
+      </c>
+      <c r="H158" t="s">
         <v>245</v>
-      </c>
-      <c r="H158" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="159" spans="3:8">
@@ -3690,10 +3692,10 @@
         <v>250800</v>
       </c>
       <c r="G159" t="s">
+        <v>246</v>
+      </c>
+      <c r="H159" t="s">
         <v>247</v>
-      </c>
-      <c r="H159" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="160" spans="3:8">
@@ -3717,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H162" t="s">
-        <v>250</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" spans="3:8">
@@ -3728,10 +3730,10 @@
         <v>251000</v>
       </c>
       <c r="G163" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H163" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" spans="3:8">
@@ -3755,10 +3757,10 @@
         <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H166" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="3:8">
@@ -3766,10 +3768,10 @@
         <v>251200</v>
       </c>
       <c r="G167" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H167" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="3:8">
@@ -3793,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H170" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="3:8">
@@ -3820,10 +3822,10 @@
         <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H173" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="3:8">
@@ -3831,10 +3833,10 @@
         <v>251500</v>
       </c>
       <c r="G174" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H174" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="3:8">
@@ -3873,10 +3875,10 @@
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H180" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -3900,10 +3902,10 @@
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H183" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -3994,10 +3996,10 @@
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H197" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -4032,10 +4034,10 @@
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H201" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -4070,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H205" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -4126,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H212" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -4148,10 +4150,10 @@
         <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H214" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -4170,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="G216" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H216" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -4192,10 +4194,10 @@
         <v>3</v>
       </c>
       <c r="G218" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H218" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -4217,10 +4219,10 @@
         <v>3</v>
       </c>
       <c r="G220" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H220" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -4239,10 +4241,10 @@
         <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H222" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -4261,10 +4263,10 @@
         <v>3</v>
       </c>
       <c r="G224" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H224" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -4314,7 +4316,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="D231" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F231" t="s">
         <v>2</v>
@@ -4328,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="G232" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H232" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -4449,10 +4451,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D251" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F251" t="s">
         <v>2</v>
@@ -4466,10 +4468,10 @@
         <v>3</v>
       </c>
       <c r="G252" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H252" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -4477,10 +4479,10 @@
         <v>241900</v>
       </c>
       <c r="G253" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H253" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -4488,10 +4490,10 @@
         <v>242000</v>
       </c>
       <c r="G254" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H254" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -4499,7 +4501,7 @@
         <v>101</v>
       </c>
       <c r="F255" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -4510,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="G256" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H256" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="257" spans="4:8">
@@ -4521,10 +4523,10 @@
         <v>242200</v>
       </c>
       <c r="G257" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H257" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="258" spans="4:8">
@@ -4532,7 +4534,7 @@
         <v>102</v>
       </c>
       <c r="F258" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="259" spans="4:8">
@@ -4543,10 +4545,10 @@
         <v>3</v>
       </c>
       <c r="G259" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H259" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" spans="4:8">
@@ -4554,10 +4556,10 @@
         <v>242400</v>
       </c>
       <c r="G260" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H260" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="261" spans="4:8">
@@ -4565,10 +4567,10 @@
         <v>242500</v>
       </c>
       <c r="G261" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H261" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="262" spans="4:8">
@@ -4576,7 +4578,7 @@
         <v>103</v>
       </c>
       <c r="F262" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="263" spans="4:8">
@@ -4587,10 +4589,10 @@
         <v>3</v>
       </c>
       <c r="G263" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H263" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="264" spans="4:8">
@@ -4598,10 +4600,10 @@
         <v>242700</v>
       </c>
       <c r="G264" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H264" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="265" spans="4:8">
@@ -4609,7 +4611,7 @@
         <v>104</v>
       </c>
       <c r="F265" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="266" spans="4:8">
@@ -4620,10 +4622,10 @@
         <v>3</v>
       </c>
       <c r="G266" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H266" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="267" spans="4:8">
@@ -4631,10 +4633,10 @@
         <v>242900</v>
       </c>
       <c r="G267" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H267" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="4:8">
@@ -4642,10 +4644,10 @@
         <v>243000</v>
       </c>
       <c r="G268" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H268" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="269" spans="4:8">
@@ -4653,7 +4655,7 @@
         <v>105</v>
       </c>
       <c r="F269" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="270" spans="4:8">
@@ -4664,10 +4666,10 @@
         <v>3</v>
       </c>
       <c r="G270" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H270" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="271" spans="4:8">
@@ -4675,10 +4677,10 @@
         <v>243200</v>
       </c>
       <c r="G271" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H271" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="272" spans="4:8">
@@ -4686,7 +4688,7 @@
         <v>106</v>
       </c>
       <c r="F272" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -4700,7 +4702,7 @@
         <v>107</v>
       </c>
       <c r="H273" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -4711,7 +4713,7 @@
         <v>108</v>
       </c>
       <c r="H274" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -4719,7 +4721,7 @@
         <v>109</v>
       </c>
       <c r="F275" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -4730,10 +4732,10 @@
         <v>3</v>
       </c>
       <c r="G276" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H276" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -4741,18 +4743,18 @@
         <v>243600</v>
       </c>
       <c r="G277" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H277" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="D278" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F278" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -4763,10 +4765,10 @@
         <v>3</v>
       </c>
       <c r="G279" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H279" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -4774,10 +4776,10 @@
         <v>110</v>
       </c>
       <c r="D281" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F281" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -4788,10 +4790,10 @@
         <v>3</v>
       </c>
       <c r="G282" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H282" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -4799,7 +4801,7 @@
         <v>111</v>
       </c>
       <c r="F283" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -4810,10 +4812,10 @@
         <v>3</v>
       </c>
       <c r="G284" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H284" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -4821,15 +4823,15 @@
         <v>244000</v>
       </c>
       <c r="G285" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H285" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="D286" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -4837,10 +4839,10 @@
         <v>244100</v>
       </c>
       <c r="G287" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H287" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -4848,18 +4850,18 @@
         <v>244200</v>
       </c>
       <c r="G288" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H288" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="D289" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F289" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -4870,10 +4872,10 @@
         <v>3</v>
       </c>
       <c r="G290" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H290" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -4881,7 +4883,7 @@
         <v>113</v>
       </c>
       <c r="F291" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -4892,10 +4894,10 @@
         <v>3</v>
       </c>
       <c r="G292" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H292" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -4909,7 +4911,7 @@
         <v>115</v>
       </c>
       <c r="F294" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -4920,10 +4922,10 @@
         <v>3</v>
       </c>
       <c r="G295" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H295" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -4934,7 +4936,7 @@
         <v>116</v>
       </c>
       <c r="F296" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -4945,10 +4947,10 @@
         <v>3</v>
       </c>
       <c r="G297" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H297" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -4956,10 +4958,10 @@
         <v>260300</v>
       </c>
       <c r="G298" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H298" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -4967,10 +4969,10 @@
         <v>260400</v>
       </c>
       <c r="G299" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H299" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -4978,10 +4980,10 @@
         <v>251600</v>
       </c>
       <c r="G300" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H300" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -4989,10 +4991,10 @@
         <v>251700</v>
       </c>
       <c r="G301" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H301" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -5008,10 +5010,10 @@
         <v>260500</v>
       </c>
       <c r="G303" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H303" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -5019,7 +5021,7 @@
         <v>118</v>
       </c>
       <c r="F305" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -5032,7 +5034,7 @@
         <v>119</v>
       </c>
       <c r="F308" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="309" spans="1:6">

--- a/doc/02设计文档/功能模块分解.xlsx
+++ b/doc/02设计文档/功能模块分解.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\git_workspace\infrastructurePAAS\doc\02设计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\个人\项目\git_repos\infrastructurePAAS\doc\02设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="709">
   <si>
     <t>L0</t>
   </si>
@@ -1239,14 +1241,1160 @@
   </si>
   <si>
     <t>/capitalmanage/queryProjectPaySurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布招标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布投标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的招标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站内消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资金管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询首页招标项目概况接口</t>
+  </si>
+  <si>
+    <t>查询首页招标项目列表接口</t>
+  </si>
+  <si>
+    <t>查询首页中标结果概况接口</t>
+  </si>
+  <si>
+    <t>查询首页中标项目列表接口</t>
+  </si>
+  <si>
+    <t>查询首页投标人概况接口</t>
+  </si>
+  <si>
+    <t>查询招标项目接口</t>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询我的招标人认证信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的招标人基本信息接口</t>
+  </si>
+  <si>
+    <t>保存招标人基本信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的招标人法人信息接口</t>
+  </si>
+  <si>
+    <t>保存招标人法人信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的招标人公司注册信息接口</t>
+  </si>
+  <si>
+    <t>保存招标人公司注册信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的招标人开户行信息接口</t>
+  </si>
+  <si>
+    <t>保存招标人开户行信息接口</t>
+  </si>
+  <si>
+    <t>提交招标人认证申请接口</t>
+  </si>
+  <si>
+    <t>查询招标人认证申请详情</t>
+  </si>
+  <si>
+    <t>查询单个项目收款列表接口</t>
+  </si>
+  <si>
+    <t>查询项目收款详情接口</t>
+  </si>
+  <si>
+    <t>查询项目应收款详情接口</t>
+  </si>
+  <si>
+    <t>查询我的中标项目收款接口</t>
+  </si>
+  <si>
+    <t>查询我的中标项目收款概况接口</t>
+  </si>
+  <si>
+    <t>查询我的投标人认证信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的投标人基本信息接口</t>
+  </si>
+  <si>
+    <t>保存投标人基本信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的投标人法人信息接口</t>
+  </si>
+  <si>
+    <t>保存投标人法人信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的投标人公司注册信息接口</t>
+  </si>
+  <si>
+    <t>保存投标人公司注册信息接口</t>
+  </si>
+  <si>
+    <t>查询保存的投标人开户行信息接口</t>
+  </si>
+  <si>
+    <t>保存投标人开户行信息接口</t>
+  </si>
+  <si>
+    <t>提交投标人认证申请接口</t>
+  </si>
+  <si>
+    <t>查询投标人认证申请详情</t>
+  </si>
+  <si>
+    <t>查询保存的投标人企业资质接口</t>
+  </si>
+  <si>
+    <t>保存投标人企业资质接口</t>
+  </si>
+  <si>
+    <t>查询项目应付款详情接口</t>
+  </si>
+  <si>
+    <t>查询我的招标项目付款情况接口</t>
+  </si>
+  <si>
+    <t>我的招标评标概况接口</t>
+  </si>
+  <si>
+    <t>定标接口</t>
+  </si>
+  <si>
+    <t>我的招标项目投标列表接口</t>
+  </si>
+  <si>
+    <t>招标方给投标方评价接口</t>
+  </si>
+  <si>
+    <t>查询招标资质接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标项目基础信息接口</t>
+  </si>
+  <si>
+    <t>保存招标项目基础信息接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标项目工程信息接口</t>
+  </si>
+  <si>
+    <t>保存招标项目工程信息接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标项目工程施工证明接口</t>
+  </si>
+  <si>
+    <t>保存招标项目工程施工证明接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标项目工程要求接口</t>
+  </si>
+  <si>
+    <t>查询资质证书类型列表接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标项目资质要求接口</t>
+  </si>
+  <si>
+    <t>保存招标项目资质要求接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标项目保证金接口</t>
+  </si>
+  <si>
+    <t>保存招标项目保证金接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标项目投标文件接口</t>
+  </si>
+  <si>
+    <t>保存招标项目投标文件接口</t>
+  </si>
+  <si>
+    <t>查询投标方列表接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标方式接口</t>
+  </si>
+  <si>
+    <t>保存未完成招标方式接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标时间要求接口</t>
+  </si>
+  <si>
+    <t>保存招标时间要求接口</t>
+  </si>
+  <si>
+    <t>查询未完成招标评标方式接口</t>
+  </si>
+  <si>
+    <t>保存招标评标方式接口</t>
+  </si>
+  <si>
+    <t>发布标的接口</t>
+  </si>
+  <si>
+    <t>查询我的招标概况接口</t>
+  </si>
+  <si>
+    <t>查询我的招标项目列表接口</t>
+  </si>
+  <si>
+    <t>查询我的施工项目列表接口</t>
+  </si>
+  <si>
+    <t>查询我的已结束项目列表接口</t>
+  </si>
+  <si>
+    <t>发布招标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开标接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询招标公告列表接口</t>
+  </si>
+  <si>
+    <t>查询投标资质接口</t>
+  </si>
+  <si>
+    <t>查询投标人基础信息接口</t>
+  </si>
+  <si>
+    <t>查询投标人资质证书接口</t>
+  </si>
+  <si>
+    <t>查询投标要求息接口</t>
+  </si>
+  <si>
+    <t>查询未完成的投标资格审查信息接口</t>
+  </si>
+  <si>
+    <t>保存投标资格审查信息接口</t>
+  </si>
+  <si>
+    <t>查询未完成投标的商务标信息接口</t>
+  </si>
+  <si>
+    <t>保存投标的商务标信息接口</t>
+  </si>
+  <si>
+    <t>查询未完成投标的技术标信息接口</t>
+  </si>
+  <si>
+    <t>查询投标保证金信息接口</t>
+  </si>
+  <si>
+    <t>提交投标接口</t>
+  </si>
+  <si>
+    <t>查询我的投标概况接口</t>
+  </si>
+  <si>
+    <t>查询我的投标中项目列表接口</t>
+  </si>
+  <si>
+    <t>查询我的未中标项目接口</t>
+  </si>
+  <si>
+    <t>查询招标人评价概况接口</t>
+  </si>
+  <si>
+    <t>投标方给招标方评价接口</t>
+  </si>
+  <si>
+    <t>我的投标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册接口</t>
+  </si>
+  <si>
+    <t>用户登录接口</t>
+  </si>
+  <si>
+    <t>用户基本信息</t>
+  </si>
+  <si>
+    <t>查看帐户基础信息接口</t>
+  </si>
+  <si>
+    <t>查询用户状态接口</t>
+  </si>
+  <si>
+    <t>修改帐户基础信息接口</t>
+  </si>
+  <si>
+    <t>修改用户头像接口</t>
+  </si>
+  <si>
+    <t>查询用户开户行信息接口</t>
+  </si>
+  <si>
+    <t>用户安全信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实名校验接口        </t>
+  </si>
+  <si>
+    <t>查询用户安全信息接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重置登录密码接口    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改登录密码接口    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改交易密码接口    </t>
+  </si>
+  <si>
+    <t>修改绑定手机号码接口</t>
+  </si>
+  <si>
+    <t>短信验证码</t>
+  </si>
+  <si>
+    <t>获取短信验证码接口</t>
+  </si>
+  <si>
+    <t>校验验证码是否正确接口</t>
+  </si>
+  <si>
+    <t>充值申请接口</t>
+  </si>
+  <si>
+    <t>提现申请接口</t>
+  </si>
+  <si>
+    <t>查询我的银行账号信息接口</t>
+  </si>
+  <si>
+    <t>查询申请提现记录接口</t>
+  </si>
+  <si>
+    <t>查询充值申请记录接口</t>
+  </si>
+  <si>
+    <t>查询我的资金账户流水接口</t>
+  </si>
+  <si>
+    <t>查询我的资金账户概况接口</t>
+  </si>
+  <si>
+    <t>冻结撮合担保金接口</t>
+  </si>
+  <si>
+    <t>解冻施工保证金接口</t>
+  </si>
+  <si>
+    <t>支付撮合手续费接口</t>
+  </si>
+  <si>
+    <t>（从资金账户）支付接口</t>
+  </si>
+  <si>
+    <t>查询最新站点公告（列表）</t>
+  </si>
+  <si>
+    <t>查询更多网站公告（列表）接口</t>
+  </si>
+  <si>
+    <t>查询我的消息（列表）接口</t>
+  </si>
+  <si>
+    <t>获取我的消息未读个数接口</t>
+  </si>
+  <si>
+    <t>标记已读（无文档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询会员信息接口</t>
+  </si>
+  <si>
+    <t>查询可购买会员列表接口</t>
+  </si>
+  <si>
+    <t>购买招标方会员接口</t>
+  </si>
+  <si>
+    <t>购买投标方会员接口</t>
+  </si>
+  <si>
+    <t>支付宝网关支付通知接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询投标人评价概况接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询投标人接口(首页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-提交申请确认页 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-评标4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-评标1-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-提交申请确认页 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-申请招标人认证-基本信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-申请招标人认证-开户行信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-申请招标人认证-法人信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-申请投标人认证-开户行信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-申请投标人认证-基本信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-申请投标人认证-行业资质 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-申请投标人认证-公司注册信息2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-申请投标人认证-公司注册信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-申请投标人认证-法人信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-资质要求 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-工期要求 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-招标项目信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-招标时间要求 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-招标答疑方式 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-投标文件 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-工程信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-招标方式 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-工程施工证明 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-保证金 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要投标-提交申请确认页 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-提交申请确认页 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要招标-评标方式 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-招标人认证信息 </t>
+  </si>
+  <si>
+    <t>评标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-评标01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-评标1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-评标3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-评标2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要投标-施工保证金 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要投标-技术标 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要投标-商务标 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我要投标-资格审查 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-投标人认证信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-已完工的项目 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-待投标的项目 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程标的管理-实施中的项目 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-工程收款管理-已收款详情 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-工程收款管理-应收款详情 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程付款管理-付款 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-工程标的管理-实施中的项目 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-工程收款管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-工程标的管理-已完工的项目 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-工程标的管理-投标中的项目 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是投标人-工程标的管理-评价 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是招标人-工程付款管理 </t>
+  </si>
+  <si>
+    <t>我是招标人-工程标的管理-评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">招标项目详情 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">快速注册 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">注册结果 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">注册身份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">忘记密码-重置成功 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">忘记密码-设置新密码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">忘记密码-手机找回密码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">忘记密码-发送验证码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录-密码错误三次后 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-开户行信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-安全信息-修改手机号3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-安全信息-修改手机号2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-安全信息-修改手机号1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-安全信息-修改交易密码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-安全信息-修改登录密码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-安全信息 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-基本信息-上传头像 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-基本信息-修改地址邮箱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-账号管理-基本信息 </t>
+  </si>
+  <si>
+    <t>注册登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-资金管理-提现 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-资金管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的-资金管理-充值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">投标人会员购买 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">招标人会员购买 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">招标人会员指南 </t>
+  </si>
+  <si>
+    <t>投标人会员指南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首页-找投标人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">更多中标结果列表 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索工程项目结果页 </t>
+  </si>
+  <si>
+    <t>搜索投标人结果页</t>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">招标项目详情2 </t>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">公司信息12 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标人管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标人管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标人管理1</t>
+  </si>
+  <si>
+    <t>我是招标人-申请招标人认证-公司注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是招标人-申请招标人认证-公司注册信息2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理2</t>
+  </si>
+  <si>
+    <t>用户管理3</t>
+  </si>
+  <si>
+    <t>用户管理4</t>
+  </si>
+  <si>
+    <t>用户管理5</t>
+  </si>
+  <si>
+    <t>站内消息和公告1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站内消息和公告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标人管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标人管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标人管理1</t>
+  </si>
+  <si>
+    <t>招标人管理2</t>
+  </si>
+  <si>
+    <t>招标人管理3</t>
+  </si>
+  <si>
+    <t>招标人管理4</t>
+  </si>
+  <si>
+    <t>招标人管理5</t>
+  </si>
+  <si>
+    <t>招标管理1</t>
+  </si>
+  <si>
+    <t>投标人管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标人管理2</t>
+  </si>
+  <si>
+    <t>投标人管理3</t>
+  </si>
+  <si>
+    <t>投标人管理4</t>
+  </si>
+  <si>
+    <t>投标人管理5</t>
+  </si>
+  <si>
+    <t>投标人管理6</t>
+  </si>
+  <si>
+    <t>投标人管理7</t>
+  </si>
+  <si>
+    <t>招标管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标管理2</t>
+  </si>
+  <si>
+    <t>招标管理3</t>
+  </si>
+  <si>
+    <t>招标管理4</t>
+  </si>
+  <si>
+    <t>招标管理5</t>
+  </si>
+  <si>
+    <t>招标管理6</t>
+  </si>
+  <si>
+    <t>招标管理7</t>
+  </si>
+  <si>
+    <t>招标管理8</t>
+  </si>
+  <si>
+    <t>招标管理9</t>
+  </si>
+  <si>
+    <t>招标管理10</t>
+  </si>
+  <si>
+    <t>招标管理11</t>
+  </si>
+  <si>
+    <t>招标管理12</t>
+  </si>
+  <si>
+    <t>招标管理13</t>
+  </si>
+  <si>
+    <t>招标管理14</t>
+  </si>
+  <si>
+    <t>招标管理15</t>
+  </si>
+  <si>
+    <t>招标管理16</t>
+  </si>
+  <si>
+    <t>招标管理17</t>
+  </si>
+  <si>
+    <t>招标管理18</t>
+  </si>
+  <si>
+    <t>投标管理1</t>
+  </si>
+  <si>
+    <t>投标管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标管理2</t>
+  </si>
+  <si>
+    <t>投标管理3</t>
+  </si>
+  <si>
+    <t>投标管理4</t>
+  </si>
+  <si>
+    <t>投标管理5</t>
+  </si>
+  <si>
+    <t>投标管理6</t>
+  </si>
+  <si>
+    <t>投标管理7</t>
+  </si>
+  <si>
+    <t>投标管理8</t>
+  </si>
+  <si>
+    <t>投标管理9</t>
+  </si>
+  <si>
+    <t>工程管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程管理2</t>
+  </si>
+  <si>
+    <t>工程管理3</t>
+  </si>
+  <si>
+    <t>工程管理4</t>
+  </si>
+  <si>
+    <t>工程管理5</t>
+  </si>
+  <si>
+    <t>会员服务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员服务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录1</t>
+  </si>
+  <si>
+    <t>注册登录2</t>
+  </si>
+  <si>
+    <t>注册登录3</t>
+  </si>
+  <si>
+    <t>注册登录4</t>
+  </si>
+  <si>
+    <t>搜索1</t>
+  </si>
+  <si>
+    <t>搜索2</t>
+  </si>
+  <si>
+    <t>消息公告</t>
+  </si>
+  <si>
+    <t>企业招标信息1</t>
+  </si>
+  <si>
+    <t>企业招标信息2</t>
+  </si>
+  <si>
+    <t>帐号管理1</t>
+  </si>
+  <si>
+    <t>帐号管理2</t>
+  </si>
+  <si>
+    <t>帐号管理3</t>
+  </si>
+  <si>
+    <t>帐号管理4</t>
+  </si>
+  <si>
+    <t>资金管理1</t>
+  </si>
+  <si>
+    <t>资金管理2</t>
+  </si>
+  <si>
+    <t>招标管理-评标1</t>
+  </si>
+  <si>
+    <t>招标管理-评标2</t>
+  </si>
+  <si>
+    <t>工程管理-招标人1</t>
+  </si>
+  <si>
+    <t>工程管理-招标人2</t>
+  </si>
+  <si>
+    <t>工程管理-招标人3</t>
+  </si>
+  <si>
+    <t>工程管理-投标人1</t>
+  </si>
+  <si>
+    <t>工程管理-投标人2</t>
+  </si>
+  <si>
+    <t>工程管理-投标人3</t>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻俊义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄杰俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户中心1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户中心2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户中心3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户中心4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户中心5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,6 +2409,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1291,7 +2452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,6 +2460,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1583,23 +2747,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HM309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H115" sqref="H115"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="7" max="7" width="41.375" customWidth="1"/>
     <col min="8" max="8" width="39.875" customWidth="1"/>
     <col min="14" max="14" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -1631,7 +2795,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>125</v>
       </c>
@@ -1642,12 +2806,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>210100</v>
       </c>
@@ -1661,7 +2825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>220100</v>
       </c>
@@ -1675,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>220200</v>
       </c>
@@ -1686,7 +2850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -1694,12 +2858,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>210200</v>
       </c>
@@ -1713,7 +2877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>210300</v>
       </c>
@@ -1724,7 +2888,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -1732,12 +2896,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +2912,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -1756,17 +2920,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:221">
+    <row r="17" spans="1:221" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:221">
+    <row r="18" spans="1:221" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:221">
+    <row r="19" spans="1:221" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>210400</v>
       </c>
@@ -1780,7 +2944,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:221">
+    <row r="20" spans="1:221" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -1788,12 +2952,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:221">
+    <row r="21" spans="1:221" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:221" s="1" customFormat="1">
+    <row r="22" spans="1:221" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2024,7 +3188,7 @@
       <c r="HL22"/>
       <c r="HM22"/>
     </row>
-    <row r="23" spans="1:221" s="1" customFormat="1">
+    <row r="23" spans="1:221" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2253,7 +3417,7 @@
       <c r="HL23"/>
       <c r="HM23"/>
     </row>
-    <row r="24" spans="1:221" s="1" customFormat="1">
+    <row r="24" spans="1:221" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2482,7 +3646,7 @@
       <c r="HL24"/>
       <c r="HM24"/>
     </row>
-    <row r="25" spans="1:221">
+    <row r="25" spans="1:221" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>148</v>
       </c>
@@ -2490,7 +3654,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:221">
+    <row r="26" spans="1:221" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +3665,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:221">
+    <row r="28" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2518,17 +3682,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:221">
+    <row r="29" spans="1:221" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:221">
+    <row r="30" spans="1:221" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:221">
+    <row r="31" spans="1:221" x14ac:dyDescent="0.2">
       <c r="E31">
         <v>210600</v>
       </c>
@@ -2542,7 +3706,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:221">
+    <row r="32" spans="1:221" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>153</v>
       </c>
@@ -2550,7 +3714,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="3:8">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -2561,17 +3725,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="3:8">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:8">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="3:8">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E36">
         <v>210700</v>
       </c>
@@ -2585,7 +3749,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="3:8">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -2593,12 +3757,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="3:8">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="3:8">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E40">
         <v>210800</v>
       </c>
@@ -2612,7 +3776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="3:8">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E41">
         <v>220100</v>
       </c>
@@ -2623,7 +3787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="3:8">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -2637,12 +3801,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="3:8">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="3:8">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E45">
         <v>210900</v>
       </c>
@@ -2656,7 +3820,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="3:8">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E46">
         <v>220100</v>
       </c>
@@ -2667,7 +3831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="3:8">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -2681,7 +3845,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="3:8">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
         <v>139</v>
       </c>
@@ -2689,12 +3853,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E50">
         <v>220100</v>
       </c>
@@ -2708,7 +3872,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E51">
         <v>220200</v>
       </c>
@@ -2719,7 +3883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -2727,12 +3891,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E55">
         <v>220100</v>
       </c>
@@ -2746,7 +3910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E56">
         <v>220200</v>
       </c>
@@ -2757,7 +3921,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E57">
         <v>211000</v>
       </c>
@@ -2768,7 +3932,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -2776,12 +3940,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E61">
         <v>211100</v>
       </c>
@@ -2795,7 +3959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -2809,12 +3973,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="3:8">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E65">
         <v>230100</v>
       </c>
@@ -2828,7 +3992,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="3:8">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -2836,12 +4000,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="3:8">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="3:8">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E69">
         <v>230200</v>
       </c>
@@ -2855,7 +4019,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="3:8">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E70">
         <v>230300</v>
       </c>
@@ -2866,7 +4030,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="3:8">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>26</v>
       </c>
@@ -2874,12 +4038,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="3:8">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="3:8">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E73">
         <v>230400</v>
       </c>
@@ -2893,7 +4057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="3:8">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E74">
         <v>230500</v>
       </c>
@@ -2904,7 +4068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="3:8">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>27</v>
       </c>
@@ -2912,12 +4076,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="3:8">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="3:8">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E77">
         <v>230600</v>
       </c>
@@ -2931,7 +4095,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="3:8">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E78">
         <v>230700</v>
       </c>
@@ -2942,7 +4106,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="3:8">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>28</v>
       </c>
@@ -2950,12 +4114,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="3:8">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="3:8">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E81">
         <v>230800</v>
       </c>
@@ -2969,7 +4133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="3:8">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E82">
         <v>230900</v>
       </c>
@@ -2980,7 +4144,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="3:8">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -2988,12 +4152,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="3:8">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="3:8">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E85">
         <v>231000</v>
       </c>
@@ -3007,7 +4171,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="3:8">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E86">
         <v>231100</v>
       </c>
@@ -3018,7 +4182,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="3:8">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -3026,12 +4190,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="3:8">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="3:8">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E89">
         <v>231200</v>
       </c>
@@ -3045,7 +4209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="3:8">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>31</v>
       </c>
@@ -3056,22 +4220,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="3:8">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="3:8">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="3:8">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="3:8">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E94">
         <v>240100</v>
       </c>
@@ -3085,7 +4249,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="3:8">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E95">
         <v>240200</v>
       </c>
@@ -3096,7 +4260,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="3:8">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>35</v>
       </c>
@@ -3104,12 +4268,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="3:8">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="3:8">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E98">
         <v>240300</v>
       </c>
@@ -3123,7 +4287,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="3:8">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E99">
         <v>240400</v>
       </c>
@@ -3134,7 +4298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="3:8">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E100">
         <v>240500</v>
       </c>
@@ -3145,7 +4309,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="3:8">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>36</v>
       </c>
@@ -3153,12 +4317,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="3:8">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="3:8">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E103">
         <v>240600</v>
       </c>
@@ -3172,7 +4336,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="3:8">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E104">
         <v>240700</v>
       </c>
@@ -3183,7 +4347,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="3:8">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>37</v>
       </c>
@@ -3191,12 +4355,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="3:8">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F106" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="3:8">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E107">
         <v>240800</v>
       </c>
@@ -3210,7 +4374,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="3:8">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -3218,12 +4382,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="3:8">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="3:8">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E110">
         <v>250100</v>
       </c>
@@ -3237,7 +4401,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="3:8">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E111">
         <v>250200</v>
       </c>
@@ -3248,7 +4412,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="3:8">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>39</v>
       </c>
@@ -3256,12 +4420,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F113" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E114">
         <v>250300</v>
       </c>
@@ -3275,7 +4439,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E115">
         <v>250400</v>
       </c>
@@ -3286,7 +4450,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>40</v>
       </c>
@@ -3294,12 +4458,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E118">
         <v>250600</v>
       </c>
@@ -3313,7 +4477,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -3327,12 +4491,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F120" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E121">
         <v>231300</v>
       </c>
@@ -3346,7 +4510,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>43</v>
       </c>
@@ -3354,12 +4518,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E124">
         <v>231400</v>
       </c>
@@ -3373,7 +4537,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E125">
         <v>231500</v>
       </c>
@@ -3384,7 +4548,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>44</v>
       </c>
@@ -3392,12 +4556,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E128">
         <v>231600</v>
       </c>
@@ -3411,7 +4575,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="3:8">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E129">
         <v>231700</v>
       </c>
@@ -3422,7 +4586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="3:8">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>45</v>
       </c>
@@ -3430,12 +4594,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="3:8">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="3:8">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E132">
         <v>231800</v>
       </c>
@@ -3449,7 +4613,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="133" spans="3:8">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E133">
         <v>231900</v>
       </c>
@@ -3460,7 +4624,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="3:8">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>46</v>
       </c>
@@ -3468,12 +4632,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="3:8">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="3:8">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E136">
         <v>232000</v>
       </c>
@@ -3487,7 +4651,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="3:8">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E137">
         <v>232100</v>
       </c>
@@ -3498,7 +4662,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="3:8">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>47</v>
       </c>
@@ -3506,12 +4670,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="3:8">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="3:8">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E140">
         <v>232200</v>
       </c>
@@ -3525,7 +4689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="141" spans="3:8">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E141">
         <v>232300</v>
       </c>
@@ -3536,7 +4700,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="3:8">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>48</v>
       </c>
@@ -3544,12 +4708,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="3:8">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="3:8">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E144">
         <v>232400</v>
       </c>
@@ -3563,7 +4727,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="145" spans="3:8">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>49</v>
       </c>
@@ -3571,12 +4735,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="3:8">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F146" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" spans="3:8">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E147">
         <v>240800</v>
       </c>
@@ -3590,7 +4754,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="148" spans="3:8">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E148">
         <v>240900</v>
       </c>
@@ -3598,7 +4762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="3:8">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>51</v>
       </c>
@@ -3606,12 +4770,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="150" spans="3:8">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F150" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="3:8">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E151">
         <v>241000</v>
       </c>
@@ -3622,7 +4786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="3:8">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>36</v>
       </c>
@@ -3630,12 +4794,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="3:8">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F153" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="3:8">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E154">
         <v>241100</v>
       </c>
@@ -3649,7 +4813,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="3:8">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E155">
         <v>241200</v>
       </c>
@@ -3660,7 +4824,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="3:8">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>53</v>
       </c>
@@ -3668,12 +4832,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="3:8">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F157" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="3:8">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E158">
         <v>250700</v>
       </c>
@@ -3687,7 +4851,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="3:8">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E159">
         <v>250800</v>
       </c>
@@ -3698,7 +4862,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="160" spans="3:8">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -3706,12 +4870,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="3:8">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F161" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="3:8">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E162">
         <v>250900</v>
       </c>
@@ -3725,7 +4889,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="163" spans="3:8">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E163">
         <v>251000</v>
       </c>
@@ -3736,7 +4900,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="3:8">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>55</v>
       </c>
@@ -3744,12 +4908,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="3:8">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F165" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="166" spans="3:8">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E166">
         <v>251100</v>
       </c>
@@ -3763,7 +4927,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="3:8">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E167">
         <v>251200</v>
       </c>
@@ -3774,7 +4938,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="3:8">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>56</v>
       </c>
@@ -3782,12 +4946,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="3:8">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F169" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="3:8">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E170">
         <v>251300</v>
       </c>
@@ -3801,7 +4965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="3:8">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>57</v>
       </c>
@@ -3809,12 +4973,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="3:8">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F172" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="3:8">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E173">
         <v>251400</v>
       </c>
@@ -3828,7 +4992,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="3:8">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E174">
         <v>251500</v>
       </c>
@@ -3839,22 +5003,22 @@
         <v>259</v>
       </c>
     </row>
-    <row r="175" spans="3:8">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F175" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="3:8">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F176" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F177" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>58</v>
       </c>
@@ -3862,12 +5026,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F179" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E180">
         <v>280100</v>
       </c>
@@ -3881,7 +5045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>59</v>
       </c>
@@ -3889,12 +5053,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F182" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E183">
         <v>280200</v>
       </c>
@@ -3908,42 +5072,42 @@
         <v>263</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>67</v>
       </c>
@@ -3951,12 +5115,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F192" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F193" t="s">
         <v>3</v>
       </c>
@@ -3964,7 +5128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
         <v>69</v>
       </c>
@@ -3972,12 +5136,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F195" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>70</v>
       </c>
@@ -3988,7 +5152,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E197">
         <v>241300</v>
       </c>
@@ -4002,7 +5166,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
         <v>72</v>
       </c>
@@ -4013,12 +5177,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F199" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
         <v>73</v>
       </c>
@@ -4026,7 +5190,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E201">
         <v>220300</v>
       </c>
@@ -4040,7 +5204,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
         <v>74</v>
       </c>
@@ -4048,7 +5212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F203" t="s">
         <v>3</v>
       </c>
@@ -4056,7 +5220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
         <v>75</v>
       </c>
@@ -4064,7 +5228,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E205">
         <v>220400</v>
       </c>
@@ -4078,7 +5242,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
         <v>76</v>
       </c>
@@ -4086,7 +5250,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F207" t="s">
         <v>3</v>
       </c>
@@ -4094,22 +5258,22 @@
         <v>112</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
         <v>80</v>
       </c>
@@ -4120,7 +5284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E212">
         <v>280300</v>
       </c>
@@ -4134,7 +5298,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
         <v>82</v>
       </c>
@@ -4142,7 +5306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E214">
         <v>280400</v>
       </c>
@@ -4156,7 +5320,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
         <v>83</v>
       </c>
@@ -4164,7 +5328,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E216">
         <v>280300</v>
       </c>
@@ -4178,7 +5342,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
         <v>84</v>
       </c>
@@ -4186,7 +5350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E218">
         <v>241400</v>
       </c>
@@ -4200,7 +5364,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
         <v>85</v>
       </c>
@@ -4208,7 +5372,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>86</v>
       </c>
@@ -4225,7 +5389,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
         <v>87</v>
       </c>
@@ -4233,7 +5397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E222">
         <v>241600</v>
       </c>
@@ -4247,7 +5411,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
         <v>88</v>
       </c>
@@ -4255,7 +5419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E224">
         <v>241700</v>
       </c>
@@ -4269,7 +5433,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
         <v>89</v>
       </c>
@@ -4277,22 +5441,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F226" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D229" t="s">
         <v>91</v>
       </c>
@@ -4300,7 +5464,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E230">
         <v>210900</v>
       </c>
@@ -4314,7 +5478,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D231" t="s">
         <v>284</v>
       </c>
@@ -4322,7 +5486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E232">
         <v>211000</v>
       </c>
@@ -4336,7 +5500,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D233" t="s">
         <v>74</v>
       </c>
@@ -4344,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E234">
         <v>211100</v>
       </c>
@@ -4355,7 +5519,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>93</v>
       </c>
@@ -4363,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>94</v>
       </c>
@@ -4371,12 +5535,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F237" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>95</v>
       </c>
@@ -4384,12 +5548,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F239" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>96</v>
       </c>
@@ -4397,12 +5561,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F241" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>97</v>
       </c>
@@ -4410,12 +5574,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F243" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>98</v>
       </c>
@@ -4423,12 +5587,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F245" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>99</v>
       </c>
@@ -4436,12 +5600,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F247" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>100</v>
       </c>
@@ -4449,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>286</v>
       </c>
@@ -4460,7 +5624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E252">
         <v>241800</v>
       </c>
@@ -4474,7 +5638,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E253">
         <v>241900</v>
       </c>
@@ -4485,7 +5649,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E254">
         <v>242000</v>
       </c>
@@ -4496,7 +5660,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
         <v>101</v>
       </c>
@@ -4504,7 +5668,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E256">
         <v>242100</v>
       </c>
@@ -4518,7 +5682,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="257" spans="4:8">
+    <row r="257" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E257">
         <v>242200</v>
       </c>
@@ -4529,7 +5693,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="258" spans="4:8">
+    <row r="258" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D258" t="s">
         <v>102</v>
       </c>
@@ -4537,7 +5701,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="259" spans="4:8">
+    <row r="259" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E259">
         <v>242300</v>
       </c>
@@ -4551,7 +5715,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="4:8">
+    <row r="260" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E260">
         <v>242400</v>
       </c>
@@ -4562,7 +5726,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="261" spans="4:8">
+    <row r="261" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E261">
         <v>242500</v>
       </c>
@@ -4573,7 +5737,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="262" spans="4:8">
+    <row r="262" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
         <v>103</v>
       </c>
@@ -4581,7 +5745,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="4:8">
+    <row r="263" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E263">
         <v>242600</v>
       </c>
@@ -4595,7 +5759,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="4:8">
+    <row r="264" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E264">
         <v>242700</v>
       </c>
@@ -4606,7 +5770,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" spans="4:8">
+    <row r="265" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D265" t="s">
         <v>104</v>
       </c>
@@ -4614,7 +5778,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="4:8">
+    <row r="266" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E266">
         <v>242800</v>
       </c>
@@ -4628,7 +5792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="267" spans="4:8">
+    <row r="267" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E267">
         <v>242900</v>
       </c>
@@ -4639,7 +5803,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="268" spans="4:8">
+    <row r="268" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E268">
         <v>243000</v>
       </c>
@@ -4650,7 +5814,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" spans="4:8">
+    <row r="269" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D269" t="s">
         <v>105</v>
       </c>
@@ -4658,7 +5822,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="270" spans="4:8">
+    <row r="270" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E270">
         <v>243100</v>
       </c>
@@ -4672,7 +5836,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="271" spans="4:8">
+    <row r="271" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E271">
         <v>243200</v>
       </c>
@@ -4683,7 +5847,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="4:8">
+    <row r="272" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D272" t="s">
         <v>106</v>
       </c>
@@ -4691,7 +5855,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E273">
         <v>243300</v>
       </c>
@@ -4705,7 +5869,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E274">
         <v>243400</v>
       </c>
@@ -4716,7 +5880,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D275" t="s">
         <v>109</v>
       </c>
@@ -4724,7 +5888,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E276">
         <v>243500</v>
       </c>
@@ -4738,7 +5902,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E277">
         <v>243600</v>
       </c>
@@ -4749,7 +5913,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D278" t="s">
         <v>319</v>
       </c>
@@ -4757,7 +5921,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E279">
         <v>243700</v>
       </c>
@@ -4771,7 +5935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>110</v>
       </c>
@@ -4782,7 +5946,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E282">
         <v>243800</v>
       </c>
@@ -4796,7 +5960,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D283" t="s">
         <v>111</v>
       </c>
@@ -4804,7 +5968,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E284">
         <v>243900</v>
       </c>
@@ -4818,7 +5982,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E285">
         <v>244000</v>
       </c>
@@ -4829,12 +5993,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D286" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E287">
         <v>244100</v>
       </c>
@@ -4845,7 +6009,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E288">
         <v>244200</v>
       </c>
@@ -4856,7 +6020,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D289" t="s">
         <v>334</v>
       </c>
@@ -4864,7 +6028,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E290">
         <v>244300</v>
       </c>
@@ -4878,7 +6042,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D291" t="s">
         <v>113</v>
       </c>
@@ -4886,7 +6050,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E292">
         <v>244400</v>
       </c>
@@ -4900,7 +6064,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>114</v>
       </c>
@@ -4914,7 +6078,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E295">
         <v>260100</v>
       </c>
@@ -4928,7 +6092,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C296" t="s">
         <v>116</v>
       </c>
@@ -4939,7 +6103,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E297">
         <v>260200</v>
       </c>
@@ -4953,7 +6117,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E298">
         <v>260300</v>
       </c>
@@ -4964,7 +6128,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E299">
         <v>260400</v>
       </c>
@@ -4975,7 +6139,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E300">
         <v>251600</v>
       </c>
@@ -4986,7 +6150,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E301">
         <v>251700</v>
       </c>
@@ -4997,12 +6161,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G302" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D303" t="s">
         <v>116</v>
       </c>
@@ -5016,7 +6180,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>118</v>
       </c>
@@ -5024,12 +6188,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F306" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>119</v>
       </c>
@@ -5037,7 +6201,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F309" t="s">
         <v>3</v>
       </c>
@@ -5047,4 +6211,2490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42332</v>
+      </c>
+      <c r="G3" s="3">
+        <v>42318</v>
+      </c>
+      <c r="H3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>494</v>
+      </c>
+      <c r="H5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42332</v>
+      </c>
+      <c r="G6" s="3">
+        <v>42318</v>
+      </c>
+      <c r="H6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42333</v>
+      </c>
+      <c r="G8" s="3">
+        <v>42318</v>
+      </c>
+      <c r="H8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" t="s">
+        <v>707</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42333</v>
+      </c>
+      <c r="G10" s="3">
+        <v>42319</v>
+      </c>
+      <c r="H10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" t="s">
+        <v>708</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42333</v>
+      </c>
+      <c r="G12" s="3">
+        <v>42319</v>
+      </c>
+      <c r="H12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>508</v>
+      </c>
+      <c r="H13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E15" t="s">
+        <v>615</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42334</v>
+      </c>
+      <c r="G15" s="3">
+        <v>42320</v>
+      </c>
+      <c r="H15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" t="s">
+        <v>473</v>
+      </c>
+      <c r="H17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" t="s">
+        <v>616</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42334</v>
+      </c>
+      <c r="G18" s="3">
+        <v>42320</v>
+      </c>
+      <c r="H18" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>475</v>
+      </c>
+      <c r="H19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H20" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E21" t="s">
+        <v>617</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42335</v>
+      </c>
+      <c r="G21" s="3">
+        <v>42321</v>
+      </c>
+      <c r="H21" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D22" t="s">
+        <v>486</v>
+      </c>
+      <c r="H22" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>478</v>
+      </c>
+      <c r="D24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" t="s">
+        <v>618</v>
+      </c>
+      <c r="F24" s="3">
+        <v>42335</v>
+      </c>
+      <c r="G24" s="3">
+        <v>42321</v>
+      </c>
+      <c r="H24" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>480</v>
+      </c>
+      <c r="H25" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>481</v>
+      </c>
+      <c r="H26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>482</v>
+      </c>
+      <c r="E27" t="s">
+        <v>619</v>
+      </c>
+      <c r="F27" s="3">
+        <v>42336</v>
+      </c>
+      <c r="G27" s="3">
+        <v>42322</v>
+      </c>
+      <c r="H27" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>483</v>
+      </c>
+      <c r="H28" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>484</v>
+      </c>
+      <c r="H29" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>622</v>
+      </c>
+      <c r="C30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" t="s">
+        <v>387</v>
+      </c>
+      <c r="E30" t="s">
+        <v>623</v>
+      </c>
+      <c r="H30" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>389</v>
+      </c>
+      <c r="H32" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" t="s">
+        <v>625</v>
+      </c>
+      <c r="H33" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>391</v>
+      </c>
+      <c r="H34" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" t="s">
+        <v>626</v>
+      </c>
+      <c r="H35" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>393</v>
+      </c>
+      <c r="H36" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E37" t="s">
+        <v>627</v>
+      </c>
+      <c r="H37" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>395</v>
+      </c>
+      <c r="H38" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E39" t="s">
+        <v>628</v>
+      </c>
+      <c r="H39" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>397</v>
+      </c>
+      <c r="H40" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>606</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" t="s">
+        <v>630</v>
+      </c>
+      <c r="H41" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>513</v>
+      </c>
+      <c r="H42" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E43" t="s">
+        <v>631</v>
+      </c>
+      <c r="H43" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>405</v>
+      </c>
+      <c r="H44" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45" t="s">
+        <v>632</v>
+      </c>
+      <c r="H45" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>407</v>
+      </c>
+      <c r="H46" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>408</v>
+      </c>
+      <c r="E47" t="s">
+        <v>633</v>
+      </c>
+      <c r="H47" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>409</v>
+      </c>
+      <c r="H48" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>410</v>
+      </c>
+      <c r="E49" t="s">
+        <v>634</v>
+      </c>
+      <c r="H49" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>412</v>
+      </c>
+      <c r="E51" t="s">
+        <v>635</v>
+      </c>
+      <c r="H51" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>413</v>
+      </c>
+      <c r="H52" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>414</v>
+      </c>
+      <c r="E53" t="s">
+        <v>636</v>
+      </c>
+      <c r="F53" s="3">
+        <v>42322</v>
+      </c>
+      <c r="H53" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>415</v>
+      </c>
+      <c r="H54" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>610</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" t="s">
+        <v>423</v>
+      </c>
+      <c r="E55" t="s">
+        <v>637</v>
+      </c>
+      <c r="H55" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>424</v>
+      </c>
+      <c r="H56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>425</v>
+      </c>
+      <c r="E57" t="s">
+        <v>638</v>
+      </c>
+      <c r="H57" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>426</v>
+      </c>
+      <c r="H58" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>427</v>
+      </c>
+      <c r="E59" t="s">
+        <v>639</v>
+      </c>
+      <c r="H59" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>428</v>
+      </c>
+      <c r="H60" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>429</v>
+      </c>
+      <c r="E61" t="s">
+        <v>640</v>
+      </c>
+      <c r="H61" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>428</v>
+      </c>
+      <c r="H62" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>430</v>
+      </c>
+      <c r="E63" t="s">
+        <v>641</v>
+      </c>
+      <c r="H63" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>437</v>
+      </c>
+      <c r="H64" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>431</v>
+      </c>
+      <c r="E65" t="s">
+        <v>642</v>
+      </c>
+      <c r="H65" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>433</v>
+      </c>
+      <c r="E67" t="s">
+        <v>643</v>
+      </c>
+      <c r="H67" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>434</v>
+      </c>
+      <c r="H68" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>435</v>
+      </c>
+      <c r="E69" t="s">
+        <v>644</v>
+      </c>
+      <c r="H69" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>436</v>
+      </c>
+      <c r="H70" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>438</v>
+      </c>
+      <c r="E71" t="s">
+        <v>645</v>
+      </c>
+      <c r="H71" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>439</v>
+      </c>
+      <c r="H72" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>646</v>
+      </c>
+      <c r="H73" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+      <c r="E75" t="s">
+        <v>647</v>
+      </c>
+      <c r="H75" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>441</v>
+      </c>
+      <c r="H76" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>442</v>
+      </c>
+      <c r="E77" t="s">
+        <v>648</v>
+      </c>
+      <c r="H77" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>443</v>
+      </c>
+      <c r="H78" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>422</v>
+      </c>
+      <c r="E79" t="s">
+        <v>649</v>
+      </c>
+      <c r="H79" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>444</v>
+      </c>
+      <c r="H80" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>450</v>
+      </c>
+      <c r="D81" t="s">
+        <v>419</v>
+      </c>
+      <c r="E81" t="s">
+        <v>650</v>
+      </c>
+      <c r="H81" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>420</v>
+      </c>
+      <c r="E83" t="s">
+        <v>651</v>
+      </c>
+      <c r="H83" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>370</v>
+      </c>
+      <c r="D84" t="s">
+        <v>512</v>
+      </c>
+      <c r="H84" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>445</v>
+      </c>
+      <c r="H85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>446</v>
+      </c>
+      <c r="E86" t="s">
+        <v>652</v>
+      </c>
+      <c r="H86" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>447</v>
+      </c>
+      <c r="H87" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>448</v>
+      </c>
+      <c r="E88" t="s">
+        <v>653</v>
+      </c>
+      <c r="H88" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>509</v>
+      </c>
+      <c r="D89" t="s">
+        <v>385</v>
+      </c>
+      <c r="H89" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>380</v>
+      </c>
+      <c r="H90" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" t="s">
+        <v>654</v>
+      </c>
+      <c r="H91" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>382</v>
+      </c>
+      <c r="H92" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>383</v>
+      </c>
+      <c r="H93" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>611</v>
+      </c>
+      <c r="C94" t="s">
+        <v>329</v>
+      </c>
+      <c r="D94" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" t="s">
+        <v>656</v>
+      </c>
+      <c r="H94" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>452</v>
+      </c>
+      <c r="H96" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>453</v>
+      </c>
+      <c r="E97" t="s">
+        <v>657</v>
+      </c>
+      <c r="H97" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>454</v>
+      </c>
+      <c r="H98" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>455</v>
+      </c>
+      <c r="H99" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>456</v>
+      </c>
+      <c r="E100" t="s">
+        <v>658</v>
+      </c>
+      <c r="H100" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>457</v>
+      </c>
+      <c r="H101" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>458</v>
+      </c>
+      <c r="E102" t="s">
+        <v>659</v>
+      </c>
+      <c r="H102" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>459</v>
+      </c>
+      <c r="H103" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>460</v>
+      </c>
+      <c r="E104" t="s">
+        <v>660</v>
+      </c>
+      <c r="H104" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>459</v>
+      </c>
+      <c r="H105" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>461</v>
+      </c>
+      <c r="E106" t="s">
+        <v>661</v>
+      </c>
+      <c r="H106" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>462</v>
+      </c>
+      <c r="H107" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>468</v>
+      </c>
+      <c r="D108" t="s">
+        <v>463</v>
+      </c>
+      <c r="E108" t="s">
+        <v>662</v>
+      </c>
+      <c r="H108" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>464</v>
+      </c>
+      <c r="H109" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>464</v>
+      </c>
+      <c r="H110" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>448</v>
+      </c>
+      <c r="E111" t="s">
+        <v>663</v>
+      </c>
+      <c r="H111" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>465</v>
+      </c>
+      <c r="H112" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>466</v>
+      </c>
+      <c r="H113" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>384</v>
+      </c>
+      <c r="E114" t="s">
+        <v>664</v>
+      </c>
+      <c r="H114" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>282</v>
+      </c>
+      <c r="H115" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>510</v>
+      </c>
+      <c r="C116" t="s">
+        <v>369</v>
+      </c>
+      <c r="D116" t="s">
+        <v>399</v>
+      </c>
+      <c r="E116" t="s">
+        <v>665</v>
+      </c>
+      <c r="F116" s="3">
+        <v>42336</v>
+      </c>
+      <c r="H116" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>416</v>
+      </c>
+      <c r="H117" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>417</v>
+      </c>
+      <c r="E118" t="s">
+        <v>666</v>
+      </c>
+      <c r="F118" s="3">
+        <v>42336</v>
+      </c>
+      <c r="H118" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>402</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="H119" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>421</v>
+      </c>
+      <c r="E120" t="s">
+        <v>667</v>
+      </c>
+      <c r="F120" s="3">
+        <v>42338</v>
+      </c>
+      <c r="H120" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>366</v>
+      </c>
+      <c r="D121" t="s">
+        <v>398</v>
+      </c>
+      <c r="H121" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>399</v>
+      </c>
+      <c r="E122" t="s">
+        <v>668</v>
+      </c>
+      <c r="F122" s="3">
+        <v>42322</v>
+      </c>
+      <c r="H122" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>400</v>
+      </c>
+      <c r="H123" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>401</v>
+      </c>
+      <c r="H124" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>402</v>
+      </c>
+      <c r="E125" t="s">
+        <v>669</v>
+      </c>
+      <c r="F125" s="3">
+        <v>42338</v>
+      </c>
+      <c r="H125" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>467</v>
+      </c>
+      <c r="H126" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" t="s">
+        <v>504</v>
+      </c>
+      <c r="E127" t="s">
+        <v>670</v>
+      </c>
+      <c r="H127" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>505</v>
+      </c>
+      <c r="H128" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>506</v>
+      </c>
+      <c r="E129" t="s">
+        <v>671</v>
+      </c>
+      <c r="H129" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>507</v>
+      </c>
+      <c r="H130" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>372</v>
+      </c>
+      <c r="C131" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" t="s">
+        <v>501</v>
+      </c>
+      <c r="E131" t="s">
+        <v>620</v>
+      </c>
+      <c r="H131" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>502</v>
+      </c>
+      <c r="H132" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>503</v>
+      </c>
+      <c r="H133" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" t="s">
+        <v>499</v>
+      </c>
+      <c r="E134" t="s">
+        <v>621</v>
+      </c>
+      <c r="H134" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>500</v>
+      </c>
+      <c r="H135" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>377</v>
+      </c>
+      <c r="B136" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" t="s">
+        <v>386</v>
+      </c>
+      <c r="D136" t="s">
+        <v>386</v>
+      </c>
+      <c r="E136" t="s">
+        <v>61</v>
+      </c>
+      <c r="F136" s="3">
+        <v>42327</v>
+      </c>
+      <c r="H136" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>584</v>
+      </c>
+      <c r="D137" t="s">
+        <v>565</v>
+      </c>
+      <c r="E137" t="s">
+        <v>672</v>
+      </c>
+      <c r="F137" s="3">
+        <v>42328</v>
+      </c>
+      <c r="H137" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>566</v>
+      </c>
+      <c r="H138" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>573</v>
+      </c>
+      <c r="E139" t="s">
+        <v>673</v>
+      </c>
+      <c r="F139" s="3">
+        <v>42328</v>
+      </c>
+      <c r="H139" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>567</v>
+      </c>
+      <c r="H140" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>568</v>
+      </c>
+      <c r="E141" t="s">
+        <v>674</v>
+      </c>
+      <c r="F141" s="3">
+        <v>42329</v>
+      </c>
+      <c r="H141" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>571</v>
+      </c>
+      <c r="H142" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>572</v>
+      </c>
+      <c r="E143" t="s">
+        <v>675</v>
+      </c>
+      <c r="F143" s="3">
+        <v>42329</v>
+      </c>
+      <c r="H143" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>570</v>
+      </c>
+      <c r="H144" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>569</v>
+      </c>
+      <c r="H145" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>596</v>
+      </c>
+      <c r="D146" t="s">
+        <v>592</v>
+      </c>
+      <c r="E146" t="s">
+        <v>676</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="H146" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>593</v>
+      </c>
+      <c r="H147" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>594</v>
+      </c>
+      <c r="E148" t="s">
+        <v>677</v>
+      </c>
+      <c r="F148" s="3">
+        <v>42333</v>
+      </c>
+      <c r="H148" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>595</v>
+      </c>
+      <c r="H149" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>600</v>
+      </c>
+      <c r="D150" t="s">
+        <v>601</v>
+      </c>
+      <c r="E150" t="s">
+        <v>678</v>
+      </c>
+      <c r="F150" s="3">
+        <v>42333</v>
+      </c>
+      <c r="H150" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>374</v>
+      </c>
+      <c r="D151" t="s">
+        <v>379</v>
+      </c>
+      <c r="H151" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>597</v>
+      </c>
+      <c r="D152" t="s">
+        <v>604</v>
+      </c>
+      <c r="E152" t="s">
+        <v>679</v>
+      </c>
+      <c r="F152" s="3">
+        <v>42334</v>
+      </c>
+      <c r="H152" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>598</v>
+      </c>
+      <c r="E153" t="s">
+        <v>680</v>
+      </c>
+      <c r="F153" s="3">
+        <v>42334</v>
+      </c>
+      <c r="H153" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>599</v>
+      </c>
+      <c r="H154" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>602</v>
+      </c>
+      <c r="D155" t="s">
+        <v>583</v>
+      </c>
+      <c r="E155" t="s">
+        <v>681</v>
+      </c>
+      <c r="F155" s="3">
+        <v>42335</v>
+      </c>
+      <c r="H155" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>574</v>
+      </c>
+      <c r="H156" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>581</v>
+      </c>
+      <c r="E157" t="s">
+        <v>682</v>
+      </c>
+      <c r="F157" s="3">
+        <v>42335</v>
+      </c>
+      <c r="H157" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>582</v>
+      </c>
+      <c r="H158" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>580</v>
+      </c>
+      <c r="E159" t="s">
+        <v>683</v>
+      </c>
+      <c r="F159" s="3">
+        <v>42336</v>
+      </c>
+      <c r="H159" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>579</v>
+      </c>
+      <c r="H160" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>578</v>
+      </c>
+      <c r="E161" t="s">
+        <v>684</v>
+      </c>
+      <c r="F161" s="3">
+        <v>42336</v>
+      </c>
+      <c r="H161" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>575</v>
+      </c>
+      <c r="H162" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>576</v>
+      </c>
+      <c r="H163" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>577</v>
+      </c>
+      <c r="H164" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>376</v>
+      </c>
+      <c r="C165" t="s">
+        <v>603</v>
+      </c>
+      <c r="D165" t="s">
+        <v>586</v>
+      </c>
+      <c r="E165" t="s">
+        <v>685</v>
+      </c>
+      <c r="F165" s="3">
+        <v>42338</v>
+      </c>
+      <c r="H165" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>585</v>
+      </c>
+      <c r="H166" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>587</v>
+      </c>
+      <c r="E167" t="s">
+        <v>686</v>
+      </c>
+      <c r="F167" s="3">
+        <v>42318</v>
+      </c>
+      <c r="H167" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>605</v>
+      </c>
+      <c r="C168" t="s">
+        <v>378</v>
+      </c>
+      <c r="D168" t="s">
+        <v>540</v>
+      </c>
+      <c r="E168" t="s">
+        <v>607</v>
+      </c>
+      <c r="F168" s="3">
+        <v>42318</v>
+      </c>
+      <c r="H168" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>518</v>
+      </c>
+      <c r="H169" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>520</v>
+      </c>
+      <c r="E170" t="s">
+        <v>625</v>
+      </c>
+      <c r="F170" s="3">
+        <v>42318</v>
+      </c>
+      <c r="H170" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>608</v>
+      </c>
+      <c r="F171" s="3"/>
+      <c r="H171" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>609</v>
+      </c>
+      <c r="E172" t="s">
+        <v>626</v>
+      </c>
+      <c r="F172" s="3">
+        <v>42319</v>
+      </c>
+      <c r="H172" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>519</v>
+      </c>
+      <c r="H173" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>514</v>
+      </c>
+      <c r="E174" t="s">
+        <v>627</v>
+      </c>
+      <c r="F174" s="3">
+        <v>42319</v>
+      </c>
+      <c r="H174" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>606</v>
+      </c>
+      <c r="C175" t="s">
+        <v>378</v>
+      </c>
+      <c r="D175" t="s">
+        <v>550</v>
+      </c>
+      <c r="H175" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>522</v>
+      </c>
+      <c r="H176" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>526</v>
+      </c>
+      <c r="E177" t="s">
+        <v>624</v>
+      </c>
+      <c r="F177" s="3">
+        <v>42319</v>
+      </c>
+      <c r="H177" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>525</v>
+      </c>
+      <c r="H178" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>524</v>
+      </c>
+      <c r="H179" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>523</v>
+      </c>
+      <c r="E180" t="s">
+        <v>631</v>
+      </c>
+      <c r="F180" s="3">
+        <v>42320</v>
+      </c>
+      <c r="H180" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>521</v>
+      </c>
+      <c r="H181" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>517</v>
+      </c>
+      <c r="H182" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>610</v>
+      </c>
+      <c r="C183" t="s">
+        <v>367</v>
+      </c>
+      <c r="D183" t="s">
+        <v>529</v>
+      </c>
+      <c r="E183" t="s">
+        <v>629</v>
+      </c>
+      <c r="F183" s="3">
+        <v>42320</v>
+      </c>
+      <c r="H183" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>533</v>
+      </c>
+      <c r="H184" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>535</v>
+      </c>
+      <c r="E185" t="s">
+        <v>638</v>
+      </c>
+      <c r="F185" s="3">
+        <v>42320</v>
+      </c>
+      <c r="H185" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>528</v>
+      </c>
+      <c r="H186" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>527</v>
+      </c>
+      <c r="E187" t="s">
+        <v>639</v>
+      </c>
+      <c r="F187" s="3">
+        <v>42322</v>
+      </c>
+      <c r="H187" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>536</v>
+      </c>
+      <c r="H188" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>534</v>
+      </c>
+      <c r="E189" t="s">
+        <v>640</v>
+      </c>
+      <c r="F189" s="3">
+        <v>42322</v>
+      </c>
+      <c r="H189" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>532</v>
+      </c>
+      <c r="H190" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>531</v>
+      </c>
+      <c r="E191" t="s">
+        <v>641</v>
+      </c>
+      <c r="F191" s="3">
+        <v>42322</v>
+      </c>
+      <c r="H191" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>530</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="H192" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>539</v>
+      </c>
+      <c r="E193" t="s">
+        <v>642</v>
+      </c>
+      <c r="F193" s="3">
+        <v>42324</v>
+      </c>
+      <c r="H193" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>538</v>
+      </c>
+      <c r="H194" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>541</v>
+      </c>
+      <c r="D195" t="s">
+        <v>542</v>
+      </c>
+      <c r="E195" t="s">
+        <v>687</v>
+      </c>
+      <c r="F195" s="3">
+        <v>42324</v>
+      </c>
+      <c r="H195" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>543</v>
+      </c>
+      <c r="H196" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>516</v>
+      </c>
+      <c r="H197" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>545</v>
+      </c>
+      <c r="E198" t="s">
+        <v>688</v>
+      </c>
+      <c r="F198" s="3">
+        <v>42324</v>
+      </c>
+      <c r="H198" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>544</v>
+      </c>
+      <c r="H199" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>515</v>
+      </c>
+      <c r="H200" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>611</v>
+      </c>
+      <c r="C201" t="s">
+        <v>368</v>
+      </c>
+      <c r="D201" t="s">
+        <v>564</v>
+      </c>
+      <c r="E201" t="s">
+        <v>655</v>
+      </c>
+      <c r="F201" s="3">
+        <v>42325</v>
+      </c>
+      <c r="H201" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
+        <v>549</v>
+      </c>
+      <c r="H202" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>548</v>
+      </c>
+      <c r="E203" t="s">
+        <v>657</v>
+      </c>
+      <c r="F203" s="3">
+        <v>42325</v>
+      </c>
+      <c r="H203" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>547</v>
+      </c>
+      <c r="H204" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>546</v>
+      </c>
+      <c r="E205" t="s">
+        <v>658</v>
+      </c>
+      <c r="F205" s="3">
+        <v>42325</v>
+      </c>
+      <c r="H205" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>537</v>
+      </c>
+      <c r="H206" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>510</v>
+      </c>
+      <c r="D207" t="s">
+        <v>551</v>
+      </c>
+      <c r="E207" t="s">
+        <v>689</v>
+      </c>
+      <c r="F207" s="3">
+        <v>42326</v>
+      </c>
+      <c r="H207" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>552</v>
+      </c>
+      <c r="H208" t="s">
+        <v>700</v>
+      </c>
+      <c r="L208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>553</v>
+      </c>
+      <c r="E209" t="s">
+        <v>690</v>
+      </c>
+      <c r="F209" s="3">
+        <v>42326</v>
+      </c>
+      <c r="H209" t="s">
+        <v>700</v>
+      </c>
+      <c r="L209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
+        <v>563</v>
+      </c>
+      <c r="H210" t="s">
+        <v>700</v>
+      </c>
+      <c r="L210">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D211" t="s">
+        <v>562</v>
+      </c>
+      <c r="E211" t="s">
+        <v>691</v>
+      </c>
+      <c r="F211" s="3">
+        <v>42326</v>
+      </c>
+      <c r="H211" t="s">
+        <v>700</v>
+      </c>
+      <c r="J211" s="3">
+        <v>42331</v>
+      </c>
+      <c r="L211">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D212" t="s">
+        <v>556</v>
+      </c>
+      <c r="H212" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D213" t="s">
+        <v>557</v>
+      </c>
+      <c r="E213" t="s">
+        <v>692</v>
+      </c>
+      <c r="F213" s="3">
+        <v>42328</v>
+      </c>
+      <c r="H213" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D214" t="s">
+        <v>559</v>
+      </c>
+      <c r="H214" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D215" t="s">
+        <v>560</v>
+      </c>
+      <c r="E215" t="s">
+        <v>693</v>
+      </c>
+      <c r="F215" s="3">
+        <v>42328</v>
+      </c>
+      <c r="H215" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
+        <v>561</v>
+      </c>
+      <c r="H216" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>558</v>
+      </c>
+      <c r="E217" t="s">
+        <v>694</v>
+      </c>
+      <c r="F217" s="3">
+        <v>42328</v>
+      </c>
+      <c r="H217" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
+        <v>554</v>
+      </c>
+      <c r="H218" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D219" t="s">
+        <v>555</v>
+      </c>
+      <c r="H219" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>614</v>
+      </c>
+      <c r="D220" t="s">
+        <v>588</v>
+      </c>
+      <c r="E220" t="s">
+        <v>613</v>
+      </c>
+      <c r="F220" s="3">
+        <v>42338</v>
+      </c>
+      <c r="H220" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
+        <v>589</v>
+      </c>
+      <c r="G221" s="3"/>
+      <c r="H221" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>612</v>
+      </c>
+      <c r="D222" t="s">
+        <v>590</v>
+      </c>
+      <c r="H222" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D223" t="s">
+        <v>591</v>
+      </c>
+      <c r="H223" t="s">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/02设计文档/功能模块分解.xlsx
+++ b/doc/02设计文档/功能模块分解.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\个人\项目\git_repos\infrastructurePAAS\doc\02设计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\git_workspace\infrastructurePAAS\doc\02设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2393,8 +2393,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2747,12 +2747,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HM309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -2763,7 +2763,7 @@
     <col min="14" max="14" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
         <v>125</v>
       </c>
@@ -2806,12 +2806,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="F4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="E5">
         <v>210100</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="E6">
         <v>220100</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="E7">
         <v>220200</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -2858,12 +2858,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="F10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="E11">
         <v>210200</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="E12">
         <v>210300</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -2896,12 +2896,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="F14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -2920,17 +2920,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:221">
       <c r="F17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:221">
       <c r="F18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:221">
       <c r="E19">
         <v>210400</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:221">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -2952,12 +2952,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:221">
       <c r="F21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:221" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:221" s="1" customFormat="1">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3188,7 +3188,7 @@
       <c r="HL22"/>
       <c r="HM22"/>
     </row>
-    <row r="23" spans="1:221" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:221" s="1" customFormat="1">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -3417,7 +3417,7 @@
       <c r="HL23"/>
       <c r="HM23"/>
     </row>
-    <row r="24" spans="1:221" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:221" s="1" customFormat="1">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -3646,7 +3646,7 @@
       <c r="HL24"/>
       <c r="HM24"/>
     </row>
-    <row r="25" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:221">
       <c r="G25" t="s">
         <v>148</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:221">
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:221">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3682,17 +3682,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:221">
       <c r="G29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:221">
       <c r="F30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:221">
       <c r="E31">
         <v>210600</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:221">
       <c r="G32" t="s">
         <v>153</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -3725,17 +3725,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8">
       <c r="G34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8">
       <c r="F35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8">
       <c r="E36">
         <v>210700</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8">
       <c r="C37" t="s">
         <v>18</v>
       </c>
@@ -3757,12 +3757,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8">
       <c r="F39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8">
       <c r="E40">
         <v>210800</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8">
       <c r="E41">
         <v>220100</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -3801,12 +3801,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8">
       <c r="F44" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:8">
       <c r="E45">
         <v>210900</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:8">
       <c r="E46">
         <v>220100</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:8">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:8">
       <c r="F48" t="s">
         <v>139</v>
       </c>
@@ -3853,12 +3853,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="F49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="E50">
         <v>220100</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="E51">
         <v>220200</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -3891,12 +3891,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="F54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="E55">
         <v>220100</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="E56">
         <v>220200</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="E57">
         <v>211000</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -3940,12 +3940,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="F60" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="E61">
         <v>211100</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -3973,12 +3973,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="F64" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:8">
       <c r="E65">
         <v>230100</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:8">
       <c r="C66" t="s">
         <v>25</v>
       </c>
@@ -4000,12 +4000,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:8">
       <c r="F68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:8">
       <c r="E69">
         <v>230200</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:8">
       <c r="E70">
         <v>230300</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:8">
       <c r="C71" t="s">
         <v>26</v>
       </c>
@@ -4038,12 +4038,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:8">
       <c r="F72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:8">
       <c r="E73">
         <v>230400</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:8">
       <c r="E74">
         <v>230500</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:8">
       <c r="C75" t="s">
         <v>27</v>
       </c>
@@ -4076,12 +4076,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:8">
       <c r="F76" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:8">
       <c r="E77">
         <v>230600</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:8">
       <c r="E78">
         <v>230700</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:8">
       <c r="C79" t="s">
         <v>28</v>
       </c>
@@ -4114,12 +4114,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:8">
       <c r="F80" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:8">
       <c r="E81">
         <v>230800</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:8">
       <c r="E82">
         <v>230900</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:8">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -4152,12 +4152,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:8">
       <c r="F84" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:8">
       <c r="E85">
         <v>231000</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:8">
       <c r="E86">
         <v>231100</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:8">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -4190,12 +4190,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:8">
       <c r="F88" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:8">
       <c r="E89">
         <v>231200</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:8">
       <c r="C90" t="s">
         <v>31</v>
       </c>
@@ -4220,22 +4220,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:8">
       <c r="G91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:8">
       <c r="G92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:8">
       <c r="F93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:8">
       <c r="E94">
         <v>240100</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:8">
       <c r="E95">
         <v>240200</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:8">
       <c r="C96" t="s">
         <v>35</v>
       </c>
@@ -4268,12 +4268,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:8">
       <c r="F97" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:8">
       <c r="E98">
         <v>240300</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:8">
       <c r="E99">
         <v>240400</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:8">
       <c r="E100">
         <v>240500</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:8">
       <c r="C101" t="s">
         <v>36</v>
       </c>
@@ -4317,12 +4317,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:8">
       <c r="F102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:8">
       <c r="E103">
         <v>240600</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:8">
       <c r="E104">
         <v>240700</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:8">
       <c r="C105" t="s">
         <v>37</v>
       </c>
@@ -4355,12 +4355,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:8">
       <c r="F106" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:8">
       <c r="E107">
         <v>240800</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:8">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -4382,12 +4382,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:8">
       <c r="F109" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:8">
       <c r="E110">
         <v>250100</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:8">
       <c r="E111">
         <v>250200</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:8">
       <c r="C112" t="s">
         <v>39</v>
       </c>
@@ -4420,12 +4420,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="F113" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="E114">
         <v>250300</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="E115">
         <v>250400</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="C116" t="s">
         <v>40</v>
       </c>
@@ -4458,12 +4458,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="F117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="E118">
         <v>250600</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -4491,12 +4491,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="F120" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="E121">
         <v>231300</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="C122" t="s">
         <v>43</v>
       </c>
@@ -4518,12 +4518,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="F123" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="E124">
         <v>231400</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="E125">
         <v>231500</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="C126" t="s">
         <v>44</v>
       </c>
@@ -4556,12 +4556,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="F127" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="E128">
         <v>231600</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:8">
       <c r="E129">
         <v>231700</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:8">
       <c r="C130" t="s">
         <v>45</v>
       </c>
@@ -4594,12 +4594,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:8">
       <c r="F131" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:8">
       <c r="E132">
         <v>231800</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:8">
       <c r="E133">
         <v>231900</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:8">
       <c r="C134" t="s">
         <v>46</v>
       </c>
@@ -4632,12 +4632,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:8">
       <c r="F135" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:8">
       <c r="E136">
         <v>232000</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:8">
       <c r="E137">
         <v>232100</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:8">
       <c r="C138" t="s">
         <v>47</v>
       </c>
@@ -4670,12 +4670,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:8">
       <c r="F139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:8">
       <c r="E140">
         <v>232200</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:8">
       <c r="E141">
         <v>232300</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:8">
       <c r="C142" t="s">
         <v>48</v>
       </c>
@@ -4708,12 +4708,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:8">
       <c r="F143" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:8">
       <c r="E144">
         <v>232400</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:8">
       <c r="C145" t="s">
         <v>49</v>
       </c>
@@ -4735,12 +4735,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:8">
       <c r="F146" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:8">
       <c r="E147">
         <v>240800</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:8">
       <c r="E148">
         <v>240900</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:8">
       <c r="C149" t="s">
         <v>51</v>
       </c>
@@ -4770,12 +4770,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:8">
       <c r="F150" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:8">
       <c r="E151">
         <v>241000</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:8">
       <c r="C152" t="s">
         <v>36</v>
       </c>
@@ -4794,12 +4794,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:8">
       <c r="F153" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:8">
       <c r="E154">
         <v>241100</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:8">
       <c r="E155">
         <v>241200</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:8">
       <c r="C156" t="s">
         <v>53</v>
       </c>
@@ -4832,12 +4832,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:8">
       <c r="F157" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:8">
       <c r="E158">
         <v>250700</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:8">
       <c r="E159">
         <v>250800</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:8">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -4870,12 +4870,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:8">
       <c r="F161" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:8">
       <c r="E162">
         <v>250900</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:8">
       <c r="E163">
         <v>251000</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:8">
       <c r="C164" t="s">
         <v>55</v>
       </c>
@@ -4908,12 +4908,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:8">
       <c r="F165" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:8">
       <c r="E166">
         <v>251100</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:8">
       <c r="E167">
         <v>251200</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:8">
       <c r="C168" t="s">
         <v>56</v>
       </c>
@@ -4946,12 +4946,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:8">
       <c r="F169" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:8">
       <c r="E170">
         <v>251300</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:8">
       <c r="C171" t="s">
         <v>57</v>
       </c>
@@ -4973,12 +4973,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:8">
       <c r="F172" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:8">
       <c r="E173">
         <v>251400</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:8">
       <c r="E174">
         <v>251500</v>
       </c>
@@ -5003,22 +5003,22 @@
         <v>259</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:8">
       <c r="F175" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:8">
       <c r="F176" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="F177" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="C178" t="s">
         <v>58</v>
       </c>
@@ -5026,12 +5026,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="F179" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="E180">
         <v>280100</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="C181" t="s">
         <v>59</v>
       </c>
@@ -5053,12 +5053,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="F182" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="E183">
         <v>280200</v>
       </c>
@@ -5072,42 +5072,42 @@
         <v>263</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>67</v>
       </c>
@@ -5115,12 +5115,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="F192" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="F193" t="s">
         <v>3</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="C194" t="s">
         <v>69</v>
       </c>
@@ -5136,12 +5136,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="F195" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>70</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="E197">
         <v>241300</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="C198" t="s">
         <v>72</v>
       </c>
@@ -5177,12 +5177,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="F199" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="C200" t="s">
         <v>73</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="E201">
         <v>220300</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="D202" t="s">
         <v>74</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="F203" t="s">
         <v>3</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="D204" t="s">
         <v>75</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="E205">
         <v>220400</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="D206" t="s">
         <v>76</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="F207" t="s">
         <v>3</v>
       </c>
@@ -5258,22 +5258,22 @@
         <v>112</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="D211" t="s">
         <v>80</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="E212">
         <v>280300</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="D213" t="s">
         <v>82</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="E214">
         <v>280400</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="D215" t="s">
         <v>83</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="E216">
         <v>280300</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="D217" t="s">
         <v>84</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="E218">
         <v>241400</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="D219" t="s">
         <v>85</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>86</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="D221" t="s">
         <v>87</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="E222">
         <v>241600</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="D223" t="s">
         <v>88</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="E224">
         <v>241700</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="D225" t="s">
         <v>89</v>
       </c>
@@ -5441,22 +5441,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="F226" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="D227" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="D228" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="D229" t="s">
         <v>91</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="E230">
         <v>210900</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="D231" t="s">
         <v>284</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="E232">
         <v>211000</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="D233" t="s">
         <v>74</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="E234">
         <v>211100</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>93</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>94</v>
       </c>
@@ -5535,12 +5535,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="F237" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>95</v>
       </c>
@@ -5548,12 +5548,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="F239" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>96</v>
       </c>
@@ -5561,12 +5561,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="F241" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>97</v>
       </c>
@@ -5574,12 +5574,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="F243" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>98</v>
       </c>
@@ -5587,12 +5587,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="F245" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>99</v>
       </c>
@@ -5600,12 +5600,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="F247" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>100</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>286</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="E252">
         <v>241800</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="E253">
         <v>241900</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="E254">
         <v>242000</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="D255" t="s">
         <v>101</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="E256">
         <v>242100</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="257" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:8">
       <c r="E257">
         <v>242200</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="258" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:8">
       <c r="D258" t="s">
         <v>102</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="259" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:8">
       <c r="E259">
         <v>242300</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:8">
       <c r="E260">
         <v>242400</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="261" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:8">
       <c r="E261">
         <v>242500</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="262" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:8">
       <c r="D262" t="s">
         <v>103</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:8">
       <c r="E263">
         <v>242600</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:8">
       <c r="E264">
         <v>242700</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="265" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:8">
       <c r="D265" t="s">
         <v>104</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:8">
       <c r="E266">
         <v>242800</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="267" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:8">
       <c r="E267">
         <v>242900</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="268" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:8">
       <c r="E268">
         <v>243000</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:8">
       <c r="D269" t="s">
         <v>105</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="270" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:8">
       <c r="E270">
         <v>243100</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="271" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:8">
       <c r="E271">
         <v>243200</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:8">
       <c r="D272" t="s">
         <v>106</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="E273">
         <v>243300</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="E274">
         <v>243400</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="D275" t="s">
         <v>109</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="E276">
         <v>243500</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8">
       <c r="E277">
         <v>243600</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="D278" t="s">
         <v>319</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="E279">
         <v>243700</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>110</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="E282">
         <v>243800</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="D283" t="s">
         <v>111</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="E284">
         <v>243900</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="E285">
         <v>244000</v>
       </c>
@@ -5993,12 +5993,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="D286" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="E287">
         <v>244100</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="E288">
         <v>244200</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="D289" t="s">
         <v>334</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="E290">
         <v>244300</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="D291" t="s">
         <v>113</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="E292">
         <v>244400</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>114</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="E295">
         <v>260100</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="C296" t="s">
         <v>116</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="E297">
         <v>260200</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="E298">
         <v>260300</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="E299">
         <v>260400</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="E300">
         <v>251600</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="E301">
         <v>251700</v>
       </c>
@@ -6161,12 +6161,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="G302" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="D303" t="s">
         <v>116</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>118</v>
       </c>
@@ -6188,12 +6188,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6">
       <c r="F306" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>119</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="F309" t="s">
         <v>3</v>
       </c>
@@ -6217,11 +6217,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
@@ -6232,7 +6232,7 @@
     <col min="8" max="8" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>364</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="D4" t="s">
         <v>493</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="D5" t="s">
         <v>494</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="D6" t="s">
         <v>495</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="D7" t="s">
         <v>496</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="D8" t="s">
         <v>488</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="D9" t="s">
         <v>492</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="D10" t="s">
         <v>491</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="D11" t="s">
         <v>489</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="D12" t="s">
         <v>498</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="D13" t="s">
         <v>508</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="D14" t="s">
         <v>497</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>361</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="D16" t="s">
         <v>471</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="C17" t="s">
         <v>472</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="D18" t="s">
         <v>474</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="D19" t="s">
         <v>475</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="D20" t="s">
         <v>476</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="D21" t="s">
         <v>477</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="C22" t="s">
         <v>485</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="D23" t="s">
         <v>487</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="C24" t="s">
         <v>478</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="D25" t="s">
         <v>480</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="D26" t="s">
         <v>481</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="D27" t="s">
         <v>482</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="D28" t="s">
         <v>483</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="D29" t="s">
         <v>484</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" t="s">
         <v>622</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="D31" t="s">
         <v>388</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="D32" t="s">
         <v>389</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="D33" t="s">
         <v>390</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="D34" t="s">
         <v>391</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="D35" t="s">
         <v>392</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="D36" t="s">
         <v>393</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="D37" t="s">
         <v>394</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="D38" t="s">
         <v>395</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="D39" t="s">
         <v>396</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="D40" t="s">
         <v>397</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>606</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="D42" t="s">
         <v>513</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="D43" t="s">
         <v>404</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="D44" t="s">
         <v>405</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="D45" t="s">
         <v>406</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="D46" t="s">
         <v>407</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="D47" t="s">
         <v>408</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="D48" t="s">
         <v>409</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8">
       <c r="D49" t="s">
         <v>410</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8">
       <c r="D50" t="s">
         <v>411</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8">
       <c r="D51" t="s">
         <v>412</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8">
       <c r="D52" t="s">
         <v>413</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8">
       <c r="D53" t="s">
         <v>414</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8">
       <c r="D54" t="s">
         <v>415</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8">
       <c r="B55" t="s">
         <v>610</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8">
       <c r="D56" t="s">
         <v>424</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8">
       <c r="D57" t="s">
         <v>425</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8">
       <c r="D58" t="s">
         <v>426</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8">
       <c r="D59" t="s">
         <v>427</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8">
       <c r="D60" t="s">
         <v>428</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8">
       <c r="D61" t="s">
         <v>429</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8">
       <c r="D62" t="s">
         <v>428</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8">
       <c r="D63" t="s">
         <v>430</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8">
       <c r="D64" t="s">
         <v>437</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:8">
       <c r="D65" t="s">
         <v>431</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:8">
       <c r="D66" t="s">
         <v>432</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:8">
       <c r="D67" t="s">
         <v>433</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:8">
       <c r="D68" t="s">
         <v>434</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:8">
       <c r="D69" t="s">
         <v>435</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:8">
       <c r="D70" t="s">
         <v>436</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:8">
       <c r="D71" t="s">
         <v>438</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:8">
       <c r="D72" t="s">
         <v>439</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:8">
       <c r="D73" t="s">
         <v>107</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:8">
       <c r="D74" t="s">
         <v>108</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:8">
       <c r="D75" t="s">
         <v>440</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:8">
       <c r="D76" t="s">
         <v>441</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:8">
       <c r="D77" t="s">
         <v>442</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:8">
       <c r="D78" t="s">
         <v>443</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:8">
       <c r="D79" t="s">
         <v>422</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:8">
       <c r="D80" t="s">
         <v>444</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8">
       <c r="C81" t="s">
         <v>450</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8">
       <c r="D82" t="s">
         <v>418</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8">
       <c r="D83" t="s">
         <v>420</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8">
       <c r="C84" t="s">
         <v>370</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8">
       <c r="D85" t="s">
         <v>445</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8">
       <c r="D86" t="s">
         <v>446</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8">
       <c r="D87" t="s">
         <v>447</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8">
       <c r="D88" t="s">
         <v>448</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8">
       <c r="C89" t="s">
         <v>509</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8">
       <c r="D90" t="s">
         <v>380</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8">
       <c r="D91" t="s">
         <v>381</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8">
       <c r="D92" t="s">
         <v>382</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8">
       <c r="D93" t="s">
         <v>383</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8">
       <c r="B94" t="s">
         <v>611</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8">
       <c r="D95" t="s">
         <v>112</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8">
       <c r="D96" t="s">
         <v>452</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:8">
       <c r="D97" t="s">
         <v>453</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:8">
       <c r="D98" t="s">
         <v>454</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:8">
       <c r="D99" t="s">
         <v>455</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:8">
       <c r="D100" t="s">
         <v>456</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:8">
       <c r="D101" t="s">
         <v>457</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:8">
       <c r="D102" t="s">
         <v>458</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:8">
       <c r="D103" t="s">
         <v>459</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:8">
       <c r="D104" t="s">
         <v>460</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:8">
       <c r="D105" t="s">
         <v>459</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:8">
       <c r="D106" t="s">
         <v>461</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:8">
       <c r="D107" t="s">
         <v>462</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:8">
       <c r="C108" t="s">
         <v>468</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:8">
       <c r="D109" t="s">
         <v>464</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:8">
       <c r="D110" t="s">
         <v>464</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:8">
       <c r="D111" t="s">
         <v>448</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:8">
       <c r="D112" t="s">
         <v>465</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8">
       <c r="D113" t="s">
         <v>466</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8">
       <c r="D114" t="s">
         <v>384</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8">
       <c r="D115" t="s">
         <v>282</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8">
       <c r="B116" t="s">
         <v>510</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8">
       <c r="D117" t="s">
         <v>416</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8">
       <c r="D118" t="s">
         <v>417</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8">
       <c r="D119" t="s">
         <v>402</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8">
       <c r="D120" t="s">
         <v>421</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8">
       <c r="C121" t="s">
         <v>366</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8">
       <c r="D122" t="s">
         <v>399</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8">
       <c r="D123" t="s">
         <v>400</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8">
       <c r="D124" t="s">
         <v>401</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8">
       <c r="D125" t="s">
         <v>402</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8">
       <c r="D126" t="s">
         <v>467</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8">
       <c r="B127" t="s">
         <v>371</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8">
       <c r="D128" t="s">
         <v>505</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="D129" t="s">
         <v>506</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="D130" t="s">
         <v>507</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="B131" t="s">
         <v>372</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="D132" t="s">
         <v>502</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="D133" t="s">
         <v>503</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="19.5">
       <c r="C134" t="s">
         <v>375</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="D135" t="s">
         <v>500</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>377</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="C137" t="s">
         <v>584</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="D138" t="s">
         <v>566</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="D139" t="s">
         <v>573</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="D140" t="s">
         <v>567</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="D141" t="s">
         <v>568</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="D142" t="s">
         <v>571</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="D143" t="s">
         <v>572</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="D144" t="s">
         <v>570</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:8">
       <c r="D145" t="s">
         <v>569</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:8">
       <c r="C146" t="s">
         <v>596</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:8">
       <c r="D147" t="s">
         <v>593</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:8">
       <c r="D148" t="s">
         <v>594</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:8">
       <c r="D149" t="s">
         <v>595</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:8">
       <c r="C150" t="s">
         <v>600</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:8">
       <c r="C151" t="s">
         <v>374</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:8">
       <c r="C152" t="s">
         <v>597</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:8">
       <c r="D153" t="s">
         <v>598</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:8">
       <c r="D154" t="s">
         <v>599</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:8">
       <c r="C155" t="s">
         <v>602</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:8">
       <c r="D156" t="s">
         <v>574</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:8">
       <c r="D157" t="s">
         <v>581</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:8">
       <c r="D158" t="s">
         <v>582</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:8">
       <c r="D159" t="s">
         <v>580</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:8">
       <c r="D160" t="s">
         <v>579</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8">
       <c r="D161" t="s">
         <v>578</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8">
       <c r="D162" t="s">
         <v>575</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8">
       <c r="D163" t="s">
         <v>576</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8">
       <c r="D164" t="s">
         <v>577</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8">
       <c r="B165" t="s">
         <v>376</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8">
       <c r="D166" t="s">
         <v>585</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8">
       <c r="D167" t="s">
         <v>587</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8">
       <c r="B168" t="s">
         <v>605</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8">
       <c r="D169" t="s">
         <v>518</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8">
       <c r="D170" t="s">
         <v>520</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8">
       <c r="D171" t="s">
         <v>608</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8">
       <c r="D172" t="s">
         <v>609</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8">
       <c r="D173" t="s">
         <v>519</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8">
       <c r="D174" t="s">
         <v>514</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8">
       <c r="B175" t="s">
         <v>606</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8">
       <c r="D176" t="s">
         <v>522</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8">
       <c r="D177" t="s">
         <v>526</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8">
       <c r="D178" t="s">
         <v>525</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8">
       <c r="D179" t="s">
         <v>524</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8">
       <c r="D180" t="s">
         <v>523</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8">
       <c r="D181" t="s">
         <v>521</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8">
       <c r="D182" t="s">
         <v>517</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8">
       <c r="B183" t="s">
         <v>610</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8">
       <c r="D184" t="s">
         <v>533</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8">
       <c r="D185" t="s">
         <v>535</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8">
       <c r="D186" t="s">
         <v>528</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8">
       <c r="D187" t="s">
         <v>527</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8">
       <c r="D188" t="s">
         <v>536</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8">
       <c r="D189" t="s">
         <v>534</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8">
       <c r="D190" t="s">
         <v>532</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8">
       <c r="D191" t="s">
         <v>531</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8">
       <c r="D192" t="s">
         <v>530</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:12">
       <c r="D193" t="s">
         <v>539</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:12">
       <c r="D194" t="s">
         <v>538</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:12">
       <c r="C195" t="s">
         <v>541</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:12">
       <c r="D196" t="s">
         <v>543</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:12">
       <c r="D197" t="s">
         <v>516</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:12">
       <c r="D198" t="s">
         <v>545</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:12">
       <c r="D199" t="s">
         <v>544</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:12">
       <c r="D200" t="s">
         <v>515</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:12">
       <c r="B201" t="s">
         <v>611</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:12">
       <c r="D202" t="s">
         <v>549</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:12">
       <c r="D203" t="s">
         <v>548</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:12">
       <c r="D204" t="s">
         <v>547</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:12">
       <c r="D205" t="s">
         <v>546</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:12">
       <c r="D206" t="s">
         <v>537</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:12">
       <c r="B207" t="s">
         <v>510</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:12">
       <c r="D208" t="s">
         <v>552</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:12">
       <c r="D209" t="s">
         <v>553</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:12">
       <c r="D210" t="s">
         <v>563</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:12">
       <c r="D211" t="s">
         <v>562</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:12">
       <c r="D212" t="s">
         <v>556</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:12">
       <c r="D213" t="s">
         <v>557</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:12">
       <c r="D214" t="s">
         <v>559</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:12">
       <c r="D215" t="s">
         <v>560</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:12">
       <c r="D216" t="s">
         <v>561</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:12">
       <c r="D217" t="s">
         <v>558</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:12">
       <c r="D218" t="s">
         <v>554</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:12">
       <c r="D219" t="s">
         <v>555</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:12">
       <c r="B220" t="s">
         <v>614</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:12">
       <c r="D221" t="s">
         <v>589</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:12">
       <c r="B222" t="s">
         <v>612</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:12">
       <c r="D223" t="s">
         <v>591</v>
       </c>
@@ -8692,9 +8692,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/02设计文档/功能模块分解.xlsx
+++ b/doc/02设计文档/功能模块分解.xlsx
@@ -2748,16 +2748,16 @@
   <dimension ref="A1:HM309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E234" sqref="E234"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="41.375" customWidth="1"/>
     <col min="8" max="8" width="39.875" customWidth="1"/>
     <col min="14" max="14" width="7.25" customWidth="1"/>
